--- a/data/trans_camb/P15_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_3-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,88</t>
+          <t>13,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>19,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,44</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>23,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,57</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,81</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>12,04</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>21,29</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>35,66</t>
+          <t>21,41</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,13</t>
+          <t>-3,23; 3,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 18,13</t>
+          <t>10,22; 17,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 22,81</t>
+          <t>14,81; 22,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,33; 37,67</t>
+          <t>-3,61; 1,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,04</t>
+          <t>7,16; 13,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 13,69</t>
+          <t>20,07; 27,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,13; 27,34</t>
+          <t>-2,74; 1,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,97; 42,33</t>
+          <t>9,47; 14,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,47</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,67; 14,69</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>18,64; 24,21</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>32,3; 38,57</t>
+          <t>18,17; 23,89</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>177,39%</t>
+          <t>178,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>239,78%</t>
+          <t>244,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>427,28%</t>
+          <t>-10,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>128,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>129,28%</t>
+          <t>292,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>293,29%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>470,53%</t>
+          <t>151,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>151,79%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>268,26%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>449,39%</t>
+          <t>269,82%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 48,92</t>
+          <t>-35,76; 54,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>107,55; 278,66</t>
+          <t>109,38; 291,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>146,51; 354,8</t>
+          <t>156,29; 364,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>299,45; 599,2</t>
+          <t>-39,02; 29,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 33,52</t>
+          <t>74,97; 204,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,27; 215,05</t>
+          <t>205,94; 406,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>199,49; 414,17</t>
+          <t>-28,99; 21,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>344,29; 651,65</t>
+          <t>103,11; 206,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 21,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>106,27; 204,44</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>202,27; 348,26</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>358,0; 557,9</t>
+          <t>201,8; 343,8</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,86</t>
+          <t>22,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,32</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>22,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,07</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,74</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>22,42</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>34,67</t>
+          <t>22,52</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,5</t>
+          <t>-3,02; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 13,0</t>
+          <t>6,0; 13,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,85; 26,44</t>
+          <t>18,2; 27,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,9; 41,99</t>
+          <t>-3,85; 1,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,24</t>
+          <t>8,97; 16,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 15,73</t>
+          <t>18,66; 27,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 27,75</t>
+          <t>-2,88; 0,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,45; 41,91</t>
+          <t>8,4; 13,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,03</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 13,27</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>19,19; 25,52</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>29,81; 39,93</t>
+          <t>19,36; 25,51</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,86%</t>
+          <t>-18,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>204,64%</t>
+          <t>205,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>484,83%</t>
+          <t>495,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>783,54%</t>
+          <t>-18,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>190,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>188,9%</t>
+          <t>349,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>353,55%</t>
+          <t>-18,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>523,71%</t>
+          <t>196,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>194,82%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>406,53%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>628,65%</t>
+          <t>408,35%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 45,33</t>
+          <t>-54,06; 44,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,43; 386,11</t>
+          <t>105,52; 408,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>288,68; 777,16</t>
+          <t>311,36; 819,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>490,52; 1253,09</t>
+          <t>-49,8; 34,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 43,17</t>
+          <t>117,02; 324,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>114,23; 326,36</t>
+          <t>230,71; 535,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>227,83; 557,97</t>
+          <t>-44,75; 18,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>350,07; 806,85</t>
+          <t>129,23; 288,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 21,84</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>124,38; 289,34</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>292,41; 551,74</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>460,92; 869,62</t>
+          <t>294,89; 549,16</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,64</t>
+          <t>20,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,62</t>
+          <t>24,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,81</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>14,28</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>22,21</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>22,4</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; -0,66</t>
+          <t>-8,78; 0,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 19,4</t>
+          <t>5,47; 20,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,02; 29,47</t>
+          <t>11,91; 29,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 2,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 2,05</t>
+          <t>9,67; 25,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,58; 24,46</t>
+          <t>17,43; 33,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 31,64</t>
+          <t>-6,36; 0,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,1; 20,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -0,29</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>9,33; 20,6</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>16,34; 27,97</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>16,84; 27,71</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-73,47%</t>
+          <t>-70,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>203,02%</t>
+          <t>216,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>348,69%</t>
+          <t>343,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-40,03%</t>
+          <t>288,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>279,69%</t>
+          <t>412,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>400,67%</t>
+          <t>-50,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>251,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-56,94%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>240,82%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>374,39%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>377,7%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 22,59</t>
+          <t>-100,0; 45,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,3; 630,16</t>
+          <t>51,87; 604,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>118,05; 878,6</t>
+          <t>128,17; 912,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,81; 93,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,12; 79,54</t>
+          <t>88,78; 701,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,54; 707,74</t>
+          <t>172,32; 963,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>164,74; 967,29</t>
+          <t>-79,25; 20,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>115,51; 518,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,75; -0,79</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>111,06; 512,72</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>192,57; 719,45</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>206,78; 657,7</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,24</t>
+          <t>20,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,66</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>23,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,39</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,51</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>11,82</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>21,85</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>36,08</t>
+          <t>21,97</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,93</t>
+          <t>-2,96; 1,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,38; 14,29</t>
+          <t>9,47; 14,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,97</t>
+          <t>17,66; 23,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,32; 38,64</t>
+          <t>-2,98; 0,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,8</t>
+          <t>9,73; 14,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,16</t>
+          <t>20,68; 25,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,42; 26,07</t>
+          <t>-2,16; 0,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,87; 40,94</t>
+          <t>10,28; 13,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,33</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>10,11; 13,53</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>19,92; 23,89</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>33,49; 38,66</t>
+          <t>20,07; 23,82</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>-14,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>188,51%</t>
+          <t>190,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>323,37%</t>
+          <t>328,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>553,83%</t>
+          <t>-14,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,8%</t>
+          <t>165,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>164,37%</t>
+          <t>323,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>324,86%</t>
+          <t>-14,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>520,96%</t>
+          <t>177,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>175,32%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>324,19%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>535,3%</t>
+          <t>326,02%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 18,32</t>
+          <t>-40,86; 19,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>132,26; 270,66</t>
+          <t>126,79; 266,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>243,56; 434,84</t>
+          <t>241,76; 432,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>427,02; 723,11</t>
+          <t>-36,36; 11,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 13,09</t>
+          <t>120,82; 231,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>113,99; 225,69</t>
+          <t>250,57; 424,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>250,17; 423,51</t>
+          <t>-30,51; 5,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>410,71; 658,09</t>
+          <t>140,27; 225,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 5,52</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>137,46; 218,31</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>267,11; 389,84</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>445,61; 638,15</t>
+          <t>269,84; 389,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
